--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-27.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-27.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oscar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D283FB27-FECD-4653-A723-39DD3313D800}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RF x" sheetId="1" r:id="rId1"/>
+    <sheet name="RF 27" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos de prueba" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
   <si>
     <t>Observación</t>
   </si>
@@ -77,80 +79,310 @@
     <t>x</t>
   </si>
   <si>
-    <t>Modificar información del personal</t>
+    <t>Listar actividades de promoción de la carrera</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Proposito de la actividad (capacitación, actualización, inducción. Involucramiento del personal, otro (s))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de actividad </t>
+  </si>
+  <si>
+    <t>Lugar donde se llevó a cabo la actividad</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Certificación de la actividad (participación o aprovechamiento)</t>
+  </si>
+  <si>
+    <t>Tema de la actividad</t>
+  </si>
+  <si>
+    <t>Responsable de coordinar actividad</t>
+  </si>
+  <si>
+    <t>Responsable de la actividad</t>
+  </si>
+  <si>
+    <t>Estado de la actividad (En ejecución, En progreso, Ejecutada)</t>
+  </si>
+  <si>
+    <t>Objetivos de la actividad</t>
+  </si>
+  <si>
+    <t>Agenda (Temas a tratar)</t>
+  </si>
+  <si>
+    <t>Ámbito (internacional o nacional)</t>
+  </si>
+  <si>
+    <t>Descripción de la actividad</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>Público dirigido (estudiantes regulares, graduados, docentes, administrativos)</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Actividad Co-Curricular</t>
+  </si>
+  <si>
+    <t>Sesión sincrónica mediante Zoom</t>
+  </si>
+  <si>
+    <t>2 horas</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Los datos que deben ser posible actualizar son: 
-Cedula:401500844</t>
+      <t>No aplica</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Segoe UI"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-Nombre: Ulate Montero, Jenny
-Fecha de nacimiento: 2/11/1969
-Género: Femenino
-Teléfono fijo: 22372096
-Teléfono celular: 89986757
-Correo personal: jmontero692010@hotmail.com
-Correo institucional: jenny.ulate.montero@una.ac.cr
-Dirección residencia: San Pedro de Barva, Heredia, 600 m este de la Iglesia Católica
-Lugar de Trabajo externo: null
-Experiencia profesional: Asistente del Área de Circulación y Préstamo;Encargada de la Biblioteca Municipal Rafael A. Calderon Guardia;Encargada Centro Catalográfico (Bibliotecas Municipales)
-Experiencia académica: Tutora en la UNED;Docente en el 2010 de Escuela de Bibliotecología de la Universidad de Costa Rica;Docente de la Escuela de Bibliotecología de la Universidad Nacional
-Tipo de cargo: Académico
-Tipo de puesto: Docente;Participante de PPAA
-Tipo de nombramiento: Propietaria
-Jornada laboral: Tiempo completo
-Grado académico: Maestría
-Año de propiedad: 2019
-Regimen administrativo: null
-Regimen docente: Categoría 88 (Profesor Instructor Licenciado)
-</t>
+      <t xml:space="preserve"> (*)</t>
     </r>
   </si>
   <si>
-    <t>Cedula:107090236
-Nombre: Barboza Jiménez, Lucrecia
-Fecha de nacimiento: 25/10/1967
-Género: Femenino
-Teléfono fijo: null
-Teléfono celular: 83666946
-Correo personal: lucreciabj@hotmail.com
-Correo institucional: lucrecia.barboza.jimenez@una.ac.cr
-Dirección residencia: Aserrí centro, 50 m sur del Banco Nacional, carretera a Cinco Esquinas
-Lugar de Trabajo externo: null
-Experiencia profesional: Asistente en la Biblioteca de Ciencias Sociales (UCR);Asistente en la Biblioteca Asociación de Colegios del Medio Oeste (ACM);Asistente en la Biblioteca del Centro de Investigaciones en Tecnología de Alimentos (UCR);Bibliotecóloga de la Asociación Demográfica Costarricense;Encargada de biblioteca del Instituto Dr. Jaim Weizman;Encargada de Biblioteca del Colegio Internacional SOS Hermann Gmeiner;Bibliotecóloga del Proyecto Automatización del Centro de Documentación del Instituto Costarricense de Acueductos y Alcantarillados (AyA);Técnico asistente de la Biblioteca José Figueres Ferrer (ITCR);Encargada de biblioteca Escuela Libre de Derecho;Contrato laboral con la Biblioteca de Ciencias Sociales (UCR)
-Experiencia académica: Académica de la Escuela dee Bibliotecología, Documentación e Información de la Universidad Nacional desde el 2006
-Tipo de cargo: Académico
-Tipo de puesto: Docente;Responsable de PPAA;Participante de PPAA
-Tipo de nombramiento: Propietaria
-Jornada laboral: Tiempo completo
-Grado académico: Maestría
-Año de propiedad: 2015
-Regimen administrativo: null
-Regimen docente: Categoría 90 (Profesor II)</t>
+    <t>Estudio de la realidad nacional</t>
+  </si>
+  <si>
+    <t>Kattia Bermúdez León</t>
+  </si>
+  <si>
+    <t>Ejecutada</t>
+  </si>
+  <si>
+    <t>Concientizar a los estudiantes para que reflexionen acerca de temas como el aborto terapéutico, niños, alcoholismo y discriminación social y cultural</t>
+  </si>
+  <si>
+    <t>Saludo y bienvenida; Instrucciones para participar de la actividad: Entrega de protocolo para participar en foro en el aula virtual; Espacio para preguntas y comentarios; Cierre</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Los estudiantes abordaron temas tales como: aborto terapéutico, niñez, las cárceles, el alcoholismo discriminación social y cultural. A partir de estos temas se logra una toma de conciencia entre la comunidad estudiantil y la necesidad de contribuir desde la bibliotecología. Participación de 25 estudiantes</t>
+  </si>
+  <si>
+    <t>Computadora; conexión a Internet; plataforma Zoom; Lecturas; Aula virtual institucional</t>
+  </si>
+  <si>
+    <t>Estudiantes regulares del curso Introducción a la Bibliotecología y Gestión de la Información (I ciclo 2019)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No aplica </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Inducción</t>
+  </si>
+  <si>
+    <t>Facultad de Filosofía y Letras</t>
+  </si>
+  <si>
+    <t>Proceso de inducción a estudiantes de primer ingreso</t>
+  </si>
+  <si>
+    <t>Juan Pablo Corella Parajales</t>
+  </si>
+  <si>
+    <t>Estudiantes de primer ingreso</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>07 y 09 de setiembre de 2020</t>
+  </si>
+  <si>
+    <t>6 horas</t>
+  </si>
+  <si>
+    <t>Curso/taller sobre Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Karla Rodríguez Salas</t>
+  </si>
+  <si>
+    <t>Magally Campos Méndez</t>
+  </si>
+  <si>
+    <t>Tareas; Chat; Llamadas; Equipos</t>
+  </si>
+  <si>
+    <t>Capacitación al personal docente de la EBDI. Participación de 11 docentes.</t>
+  </si>
+  <si>
+    <t>Invitación; instructivo; computadora; plataforma Microsoft Teams; conexión a internet</t>
+  </si>
+  <si>
+    <t>Personal docente de la EBDI</t>
+  </si>
+  <si>
+    <t>19, 25 y 26 de febrero de 2021</t>
+  </si>
+  <si>
+    <t>10 horas</t>
+  </si>
+  <si>
+    <t>Taller: uso de herramientas tecnológicas para la docencia</t>
+  </si>
+  <si>
+    <t>Magally Campos Méndez
+Freddy Oviedo</t>
+  </si>
+  <si>
+    <t>Herramientas del aula virtual (Asistencia, Grupos, Wiki, Glosario, lección, taller, cuestionario, insertar audio y url)
+Google calendar y Sharepoint</t>
+  </si>
+  <si>
+    <t>02 de setiembre</t>
+  </si>
+  <si>
+    <t>3 horas</t>
+  </si>
+  <si>
+    <t>Curso Classroom para docentes</t>
+  </si>
+  <si>
+    <t>Contribuir al formatalecimiento de las competencias académicas con respecto al manejo de herramientas para mediar pedagogicamente con las TIC</t>
+  </si>
+  <si>
+    <t>Google Classroom</t>
+  </si>
+  <si>
+    <t>Capacitación al personal docente de la EBDI. Participación de 10 docentes.</t>
+  </si>
+  <si>
+    <t>Invitación; instructivo; computadora; plataforma Zoom; conexión a internet</t>
+  </si>
+  <si>
+    <t>Curso/taller</t>
+  </si>
+  <si>
+    <t>Aula tecnológiga (Facultad de Filosofía y Letras)</t>
+  </si>
+  <si>
+    <t>30 de setiembre y 01 de octubre</t>
+  </si>
+  <si>
+    <t>16 horas</t>
+  </si>
+  <si>
+    <t>Escritura académica con énfasis en artículos científicos</t>
+  </si>
+  <si>
+    <t>Johann Pirela Morillo</t>
+  </si>
+  <si>
+    <t>Módulo 1: Aspectos introducctorios
+Módulo 2: Sistemas de citación y elementos para evaluar artículos científicos</t>
+  </si>
+  <si>
+    <t>Capacitación de dos días al personal docente de la EBDI. Participación de 11 docentes.</t>
+  </si>
+  <si>
+    <t>Invitación; Presentaciones PowerPoint; computadora; conexión a internet; proyección multimedia</t>
+  </si>
+  <si>
+    <t>Charla</t>
+  </si>
+  <si>
+    <t>17 de abril de 2018</t>
+  </si>
+  <si>
+    <t>Capacitación sobre las bases de datos del SIDUNA, el OPAC, libros y revistas electrónicos y el repositorio institucional</t>
+  </si>
+  <si>
+    <t>Pedro Bustabad</t>
+  </si>
+  <si>
+    <t>Jorlenny Valerio</t>
+  </si>
+  <si>
+    <t>Cumplir con la directriz institucional para el uso de los recursos del SIDUNA y fortalecer las habilidades del estudiantado.</t>
+  </si>
+  <si>
+    <t>Curso/taller a estudiantes regulares, egresados y graduados de la EBDI. Participación 25 estudiantes</t>
+  </si>
+  <si>
+    <t>Estudiantes regulares, egresados y graduados</t>
+  </si>
+  <si>
+    <t>16 y 18 de abril de 2018</t>
+  </si>
+  <si>
+    <t>Charla sobre el Centro Regional de Información sobre Desastres para América Latina y el Caribe (CRID)</t>
+  </si>
+  <si>
+    <t>Giannina Ocampo Bermúdez
+Lucrecia Barboza Jiménez</t>
+  </si>
+  <si>
+    <t>Centro Regional de Información sobre Desastres para América Latina y el Caribe (CRID)</t>
+  </si>
+  <si>
+    <t>Fortalecer las habilidades del estudiantado.</t>
+  </si>
+  <si>
+    <t>Estudiantes regulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El formato de la fecha de inicio se debe mostrar de la siguiente manera: DD / MM / YYYY</t>
+  </si>
+  <si>
+    <t>En el listado de actividades es necesario visualizar la siguiente siguiente información: 
+Nombre de la actividad.
+Tipo de actividad.
+Fecha de la actividad.
+Responsable de la actividad.
+Estado de la actividad.
+Propósito de la actividad.
+Estado de la activdad.</t>
+  </si>
+  <si>
+    <t>LOS CASOS SE ENCUENTRAN EN LA HOJA 2 DE ESTE DOCUMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +452,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +505,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -254,12 +520,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,9 +583,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="12">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>17</v>
@@ -712,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>44133</v>
+        <v>44278</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -751,9 +1053,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
+    <row r="11" spans="1:6" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>16</v>
@@ -761,29 +1063,35 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11"/>
+    <row r="12" spans="1:6" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="383.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B14" s="11"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
@@ -810,6 +1118,10 @@
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -823,4 +1135,505 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86798575-4C8E-4859-A3F7-D565FF787661}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="21">
+        <v>43605</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="21">
+        <v>43515</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-27.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-27.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D283FB27-FECD-4653-A723-39DD3313D800}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3114BCB-8358-45A7-9209-82A986BBC60E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 27" sheetId="1" r:id="rId1"/>
     <sheet name="Datos de prueba" sheetId="2" r:id="rId2"/>
+    <sheet name="Firmas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -571,6 +572,27 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,27 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -622,8 +623,70 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1472A21-C612-4EF8-90E5-28B1B53BFE7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15182850" cy="26022300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -938,23 +1001,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -964,12 +1027,12 @@
       <c r="B3" s="4">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
@@ -990,23 +1053,23 @@
       <c r="B5" s="12">
         <v>27</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,12 +1092,12 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1054,7 +1117,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1064,7 +1127,7 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1168,472 +1231,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="17">
         <v>43605</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="17">
         <v>43515</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="20" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20" t="s">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20" t="s">
+      <c r="L7" s="16"/>
+      <c r="M7" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="16" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D110F840-0ADB-47BD-A2E6-56E24370C9F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>